--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D3C87F-C8DB-400E-AD37-1D0049E8682F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1248F529-346D-4A6F-9DBA-D81E774F6999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -148,34 +148,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000</t>
-  </si>
-  <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500</t>
+  </si>
+  <si>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,13,14,15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,12 +570,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9:H16"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="61.5" customWidth="1"/>
+    <col min="2" max="2" width="83.375" customWidth="1"/>
     <col min="3" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="47.875" customWidth="1"/>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1248F529-346D-4A6F-9DBA-D81E774F6999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3860EB-4EBC-42FF-AC7A-F232BB32AAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500</t>
-  </si>
-  <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,11 +168,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,13,14,15</t>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,12 +567,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="83.375" customWidth="1"/>
+    <col min="2" max="2" width="61.5" customWidth="1"/>
     <col min="3" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="47.875" customWidth="1"/>
@@ -610,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -622,7 +619,7 @@
         <v>9008</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -633,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -645,7 +642,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -668,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -691,7 +688,7 @@
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -714,7 +711,7 @@
         <v>73</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -737,7 +734,7 @@
         <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
@@ -760,7 +757,7 @@
         <v>9001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3860EB-4EBC-42FF-AC7A-F232BB32AAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E4230B-21CA-48D1-A28E-A27D9658BEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -148,31 +148,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
         <v>9008</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -642,7 +642,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -665,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -688,7 +688,7 @@
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -711,7 +711,7 @@
         <v>73</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -734,7 +734,7 @@
         <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
@@ -757,7 +757,7 @@
         <v>9001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>

--- a/Assets/06.Table/DayOfWeekDungeon.xlsx
+++ b/Assets/06.Table/DayOfWeekDungeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E4230B-21CA-48D1-A28E-A27D9658BEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FFE212-2A8C-4314-8DAE-777C9422ED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DayOfWeekDungeon" sheetId="1" r:id="rId1"/>
@@ -148,31 +148,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65</t>
+    <t>0,10000,10500,11000,11500,12000,12500,13000,13500,14000,14500,15000,15500,16000,16500,17000,17500,18000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,10,15,20,25,30,35,40,45,50,55,60,65,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30,35,40,45,50,60,70,80,90,100,110,120,130,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,2800,3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,55,60,65,70,75,80,85,90,100,110,120,130,140,150,160,170,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9,11,13,15,17,19,21,24,27,30,33,36,39,42,45,48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,7,8,8,9,9,10,10,11,11,12,12,13,13,14,14,15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
         <v>9008</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -642,7 +642,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -665,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -688,7 +688,7 @@
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -711,7 +711,7 @@
         <v>73</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -734,7 +734,7 @@
         <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
@@ -757,7 +757,7 @@
         <v>9001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
